--- a/doc/work-tracking/2024-10 (21-27).xlsx
+++ b/doc/work-tracking/2024-10 (21-27).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Double\Desktop\p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1025\github\temcocontrols\T3000Webview\doc\work-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F98481F-7804-4743-A72F-32A8D613A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB1116-F07F-4780-A95C-1EAC1B899B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="2496" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="work-tracking" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Day</t>
   </si>
@@ -60,6 +60,45 @@
   </si>
   <si>
     <t>2024-10-26/27</t>
+  </si>
+  <si>
+    <t>2024-10-21 =&gt; 2024-10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-28 =&gt; 2024-11-01 </t>
+  </si>
+  <si>
+    <t>2024-11-04 =&gt; 2024-11-08</t>
+  </si>
+  <si>
+    <t>2024-11-11 =&gt; 2024-11-15</t>
+  </si>
+  <si>
+    <t>2024-11-18 =&gt; 2024-11-22</t>
+  </si>
+  <si>
+    <t>Week1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">week3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">week4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">week5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">week6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-25 =&gt; 2024-11-29 </t>
+  </si>
+  <si>
+    <t>(Library upgradation)</t>
   </si>
 </sst>
 </file>
@@ -67,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -145,7 +184,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,4 +623,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AC21FB-A4AB-4FDE-BCB1-C710090DE10C}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>